--- a/biology/Botanique/Symphyotrichum_novi-belgii/Symphyotrichum_novi-belgii.xlsx
+++ b/biology/Botanique/Symphyotrichum_novi-belgii/Symphyotrichum_novi-belgii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aster des jardins
 Symphyotrichum novi-belgii est une espèce de plante à fleurs de la famille des Asteraceae.
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace.
 L'inflorescence est un capitule dont les fleurs périphériques, ligulées, sont mauves. Certains cultivars vont vers le bleu-violet (par exemple 'Schöne von Dietlikon') ou le rouge ('Septemberrubin'). Les fleurs centrales sont généralement jaune-orangé.
@@ -548,9 +562,11 @@
           <t>Espèce invasive</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est considérée comme une espèce invasive de la liste noire par le Conservatoire Botanique National de Méditerranée[1]. Elle est aussi invasive en Suisse[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est considérée comme une espèce invasive de la liste noire par le Conservatoire Botanique National de Méditerranée. Elle est aussi invasive en Suisse.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Symphyotrichum novi-belgii var. novi-belgii
 Symphyotrichum novi-belgii var. villicaule (A.Gray) Labrecque &amp; Brouillet</t>
@@ -610,7 +628,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Aster novi-belgii L.</t>
         </is>
